--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3581449.075657026</v>
+        <v>3685475.127517533</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7647595.929801064</v>
+        <v>7611436.217519508</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.0648965483583</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>128.7363964403882</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>101.2312730378067</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>235.7089498773599</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>175.9033742411859</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>9.943518040492958</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>25.98697678287508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>206.7155037264341</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>176.0205735621221</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.90057693901204</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>82.95729688511217</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>96.5828867913702</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.7199604467004</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>13.72582864853737</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>156.0235370972432</v>
       </c>
     </row>
     <row r="20">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>94.30373791808189</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>219.6739364530935</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>31.39650288673342</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2764,22 +2766,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>178.2798710842933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065873</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>66.09841665934323</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>179.0096685581084</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>100.0416311957226</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652535</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>52.47682210853022</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999782</v>
+        <v>105.7906564314211</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2147.259084619147</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C4" t="n">
-        <v>1978.32290169124</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D4" t="n">
-        <v>1978.32290169124</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E4" t="n">
-        <v>1978.32290169124</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005524</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.153322005524</v>
+        <v>1185.921742881403</v>
       </c>
       <c r="V4" t="n">
-        <v>2657.468833799637</v>
+        <v>931.2372546755164</v>
       </c>
       <c r="W4" t="n">
-        <v>2368.051663762677</v>
+        <v>641.8200846385557</v>
       </c>
       <c r="X4" t="n">
-        <v>2368.051663762677</v>
+        <v>641.8200846385557</v>
       </c>
       <c r="Y4" t="n">
-        <v>2147.259084619147</v>
+        <v>641.8200846385557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3109.584116376734</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3109.584116376734</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C7" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1397.762119744519</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1143.077631538632</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>853.6604615016718</v>
+        <v>1084.873196648167</v>
       </c>
       <c r="X7" t="n">
-        <v>625.6709106036544</v>
+        <v>856.8836457501499</v>
       </c>
       <c r="Y7" t="n">
-        <v>625.6709106036544</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.580917301916</v>
+        <v>1867.11669882964</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1498.154181889229</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3314.595137832393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3108.617390216615</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3108.617390216615</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2777.554502873044</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.78584760293</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.32008934185</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.180757366038</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.6774975139006</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,22 +4959,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1843.499298709592</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1843.499298709592</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1621.732683279118</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1621.732683279118</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1621.732683279118</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>1332.315513242158</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>1104.32596234414</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y10" t="n">
-        <v>1104.32596234414</v>
+        <v>456.9449278938906</v>
       </c>
     </row>
     <row r="11">
@@ -5021,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>950.1865537761984</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>781.2503708482915</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>631.1337314359557</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>483.2206378535626</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>483.2206378535626</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>316.0245385684426</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5983,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,10 +6007,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,10 +6025,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>3205.31468543348</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>3386.96315026372</v>
       </c>
     </row>
     <row r="29">
@@ -6446,52 +6448,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2978.49319221331</v>
+        <v>3267.591475357737</v>
       </c>
       <c r="C31" t="n">
-        <v>2834.08695624706</v>
+        <v>3098.65529242983</v>
       </c>
       <c r="D31" t="n">
-        <v>2708.500263796381</v>
+        <v>2948.538653017494</v>
       </c>
       <c r="E31" t="n">
-        <v>2585.117117175644</v>
+        <v>2800.625559435101</v>
       </c>
       <c r="F31" t="n">
-        <v>2462.75711663939</v>
+        <v>2653.735611937191</v>
       </c>
       <c r="G31" t="n">
-        <v>2320.090964315926</v>
+        <v>2486.539512652071</v>
       </c>
       <c r="H31" t="n">
-        <v>2202.90908011978</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>2145.35232372935</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>2249.630143176793</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>2535.361206719451</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>2949.801601912511</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>3395.853105660665</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>3837.304778337792</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>4230.875860063897</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>4547.593116654574</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>4648.317395612651</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4489.992508229212</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>4294.920990213809</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>4030.375710519663</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V31" t="n">
-        <v>3800.221169275433</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W31" t="n">
-        <v>3535.333946200128</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X31" t="n">
-        <v>3331.874342263767</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y31" t="n">
-        <v>3135.611710081893</v>
+        <v>3449.239940187977</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6700,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>3195.647281583948</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>3026.711098656041</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>2876.594459243706</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4589.780999675641</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4370.179534698583</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>4370.179534698583</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>4115.495046492696</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3826.077876455735</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3598.088325557718</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3377.295746414188</v>
       </c>
     </row>
     <row r="38">
@@ -7154,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213309</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247058</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796378</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175642</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639388</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315924</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119778</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729348</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176792</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.36120671945</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912509</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660663</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337791</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063895</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654572</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.31739561265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229211</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.920990213808</v>
+        <v>2144.05565446885</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519662</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275431</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.333946200127</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263766</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081892</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.574752399523419</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>62.56111625485161</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>66.5105379361506</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>135.8503182118944</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>74.19629618688066</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>39.57498479398643</v>
       </c>
     </row>
     <row r="35">
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>80.98465480592203</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>164.928628218758</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659096</v>
+        <v>40.6433062151481</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655476.3831922018</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666592.5193316239</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>779989.681371069</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710693</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.68137107</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363177</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>89744.12305813254</v>
+      </c>
+      <c r="C4" t="n">
+        <v>89744.12305813252</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813246</v>
       </c>
-      <c r="C4" t="n">
-        <v>89744.12305813245</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813241</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987473</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987467</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987467</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987472</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987467</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746433.1279760493</v>
+        <v>-746433.1279760494</v>
       </c>
       <c r="C6" t="n">
         <v>582311.6177515433</v>
@@ -26528,7 +26530,7 @@
         <v>582311.6177515432</v>
       </c>
       <c r="E6" t="n">
-        <v>329697.1897874629</v>
+        <v>329697.1897874619</v>
       </c>
       <c r="F6" t="n">
         <v>655109.6515948175</v>
@@ -26537,31 +26539,31 @@
         <v>655109.6515948176</v>
       </c>
       <c r="H6" t="n">
+        <v>655109.6515948173</v>
+      </c>
+      <c r="I6" t="n">
         <v>655109.6515948178</v>
       </c>
-      <c r="I6" t="n">
-        <v>655109.6515948179</v>
-      </c>
       <c r="J6" t="n">
-        <v>437578.4491975399</v>
+        <v>437578.4491975402</v>
       </c>
       <c r="K6" t="n">
-        <v>638849.8999736474</v>
+        <v>655109.6515948174</v>
       </c>
       <c r="L6" t="n">
-        <v>658277.6179672794</v>
+        <v>655109.6515948174</v>
       </c>
       <c r="M6" t="n">
-        <v>573222.5900317678</v>
+        <v>570054.6236593056</v>
       </c>
       <c r="N6" t="n">
-        <v>658277.6179672799</v>
+        <v>655109.6515948175</v>
       </c>
       <c r="O6" t="n">
-        <v>658277.6179672792</v>
+        <v>655109.6515948176</v>
       </c>
       <c r="P6" t="n">
-        <v>655109.6515948175</v>
+        <v>655109.6515948178</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.66894511512231</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>253.1939736318736</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>44.18977498512452</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>50.50288832825294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>230.9726715005255</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>317.8087404296419</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>260.2248614227378</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>79.80749461015694</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>178.6624680585608</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>98.28718484916376</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.974855784935144</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>122.0017665607246</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28384,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.528290896277801e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-7.791920954612298e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-7.791920954612298e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29527,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30282,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>622.3466130915036</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>361.5531172119652</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32485,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,13 +32557,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N21" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>504.288299623204</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>173.3851399586646</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33503,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33977,25 +33979,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34444,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>479.7503686470592</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>219.4190832899469</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35881,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36133,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>31.25110603664623</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3685475.127517533</v>
+        <v>3681462.517503541</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>128.7363964403882</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0.6767922104151619</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>235.7089498773599</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>175.9033742411859</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>206.7155037264341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>176.0205735621221</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>109.6870817625077</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>96.5828867913702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722606</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695588</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304575911</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784679</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.8176890312856</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819362</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986267</v>
       </c>
       <c r="D13" t="n">
-        <v>130.1208074460236</v>
+        <v>148.6154730182112</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646568</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229301</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624061455</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272872</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389243</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365899</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389036</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701325</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.7199604467004</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.0235370972432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.30373791808189</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>219.6739364530935</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881297</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.24096871741</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784701</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560546</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819383</v>
       </c>
       <c r="C28" t="n">
-        <v>31.39650288673342</v>
+        <v>167.2468210986289</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922699</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892426323</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012271</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016456</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892452</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238291</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336592</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890382</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520958</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569569</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>66.09841665934323</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>179.0096685581084</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>100.0416311957226</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>52.47682210853022</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E46" t="n">
-        <v>105.7906564314211</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176105</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D2" t="n">
-        <v>958.1473305693546</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>893.2540998721634</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>482.2681950825558</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>67.19574492755225</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>67.19574492755225</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.171619808316</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1185.921742881403</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>931.2372546755164</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W4" t="n">
-        <v>641.8200846385557</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>641.8200846385557</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>641.8200846385557</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392135</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392135</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>552.8079389392135</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>675.2351809199101</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>675.2351809199101</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1084.873196648167</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>856.8836457501499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>856.8836457501499</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1867.11669882964</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1498.154181889229</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2257.256030805452</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1867.11669882964</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9449278938906</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>456.9449278938906</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.77602655187</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611459</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362671</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797123</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111681</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075743</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332377</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014765</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355918</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291067986</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069468</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852225</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398562</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492545</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474776</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466566</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612122995</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852881</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591802</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615991</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778461</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967192</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354679</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300123</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568973</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028052</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797123</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273794</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803914</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516097</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167365</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793914</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348517</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5147,7 +5147,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T12" t="n">
         <v>2244.643795685161</v>
@@ -5156,7 +5156,7 @@
         <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.463605996602</v>
       </c>
       <c r="W12" t="n">
         <v>1527.226249268401</v>
@@ -5165,7 +5165,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>707.6725264685126</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406069</v>
       </c>
       <c r="D13" t="n">
-        <v>382.4184417036842</v>
+        <v>388.6197041282724</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458804</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797123</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797123</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797123</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797123</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797734</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216001</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238943</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583142</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377256</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340296</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.11357044228</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987512</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5345,37 +5345,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.1865537761984</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.2503708482915</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>631.1337314359557</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>483.2206378535626</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>483.2206378535626</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0245385684426</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192673</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5791,13 +5791,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556308</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>335.9629114732377</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>189.0729639753273</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,40 +6001,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.31468543348</v>
+        <v>513.8536007400547</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121468</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121468</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121468</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121468</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270257</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782947</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038324</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797715</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832654</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487558</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854694</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.701365648807</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611845</v>
       </c>
       <c r="X28" t="n">
-        <v>3607.75572940725</v>
+        <v>916.2946447138266</v>
       </c>
       <c r="Y28" t="n">
-        <v>3386.96315026372</v>
+        <v>695.5020655702955</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3267.591475357737</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3098.65529242983</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2948.538653017494</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2800.625559435101</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2653.735611937191</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2486.539512652071</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.239940187977</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3449.239940187977</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3195.647281583948</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>3026.711098656041</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4589.780999675641</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4370.179534698583</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4370.179534698583</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>4115.495046492696</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3826.077876455735</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3598.088325557718</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>3377.295746414188</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.448174698413</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.05565446885</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1854.980427813048</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1082.889218672183</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0966395286528</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,16 +7645,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.613315601761</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>888.6771326738537</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>738.560493261518</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>18.49466557218872</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922677</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462228</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856474</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012106</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610291</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.574752399523419</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.56111625485161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.22040037418695</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>66.5105379361506</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>135.8503182118944</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182134</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465702</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229323</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392196168</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856657</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.19629618688066</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.57498479398643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>80.98465480592203</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>164.928628218758</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E46" t="n">
-        <v>40.6433062151481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.3831922024</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.3831922016</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055055</v>
+        <v>766789.2697055066</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="L2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073486</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.10067730059231e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793550992</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678303</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678133</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678128</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678081</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678113</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239066</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746433.1279760494</v>
+        <v>-746433.1279760493</v>
       </c>
       <c r="C6" t="n">
-        <v>582311.6177515433</v>
+        <v>582311.6177515431</v>
       </c>
       <c r="D6" t="n">
-        <v>582311.6177515432</v>
+        <v>582311.6177515434</v>
       </c>
       <c r="E6" t="n">
-        <v>329697.1897874619</v>
+        <v>329349.8105331115</v>
       </c>
       <c r="F6" t="n">
-        <v>655109.6515948175</v>
+        <v>654762.2723404545</v>
       </c>
       <c r="G6" t="n">
-        <v>655109.6515948176</v>
+        <v>654762.2723404606</v>
       </c>
       <c r="H6" t="n">
-        <v>655109.6515948173</v>
+        <v>654762.2723404607</v>
       </c>
       <c r="I6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404603</v>
       </c>
       <c r="J6" t="n">
-        <v>437578.4491975402</v>
+        <v>437231.0699431832</v>
       </c>
       <c r="K6" t="n">
-        <v>655109.6515948174</v>
+        <v>654762.2723404609</v>
       </c>
       <c r="L6" t="n">
-        <v>655109.6515948174</v>
+        <v>654762.2723404603</v>
       </c>
       <c r="M6" t="n">
-        <v>570054.6236593056</v>
+        <v>569707.2444049506</v>
       </c>
       <c r="N6" t="n">
-        <v>655109.6515948175</v>
+        <v>654762.2723404603</v>
       </c>
       <c r="O6" t="n">
-        <v>655109.6515948176</v>
+        <v>654762.2723404603</v>
       </c>
       <c r="P6" t="n">
-        <v>655109.6515948178</v>
+        <v>654762.2723404603</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341667</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809964</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483691</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.139089236967266e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973478</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697348</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973478</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>253.1939736318736</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>40.90013756251079</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>50.50288832825294</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>230.9726715005255</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>270.4601319683919</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,19 +27830,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>79.80749461015694</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>178.6624680585608</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>94.23088837711248</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>122.0017665607246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.510980113489997e-11</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.142398359818266e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28386,16 +28386,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.528290896277801e-14</v>
+        <v>2.411577144875051e-12</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.791920954612298e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28863,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29453,55 +29453,55 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-8.052405012808361e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.04585765335475e-12</v>
       </c>
     </row>
     <row r="29">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348408</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135314</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067222</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663261</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817542</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162521</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017563</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.271511415938</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626459985</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236471</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669195</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043709</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651517</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078725</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659435</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521087</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007744</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420742</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422563</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473042</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862086</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071749</v>
       </c>
       <c r="O12" t="n">
-        <v>622.3466130915036</v>
+        <v>398.7616643558156</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742413</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937728</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275945</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189892</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612156</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869241</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796253</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355164</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588136</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392027</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610677</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920041</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.35321404173</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515918</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532746</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099317</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467215</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>361.5531172119652</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875799</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806724</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>504.288299623204</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33657,34 +33657,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>484.1423712692491</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316261</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396398</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367737</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462649</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902903</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819347</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243118</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683775</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.56753349247</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902388</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774446</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754075</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678973</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674301</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641904</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238416</v>
       </c>
       <c r="O12" t="n">
-        <v>479.7503686470592</v>
+        <v>256.1654199113711</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629537</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191309</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010444</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899068</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060449</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066247</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>219.4190832899469</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042467</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318053</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>370.3138922088737</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295236</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191304</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899064</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998973</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>311.9917356041954</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>350.1679638549188</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,19 +37627,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3705304098922</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3681462.517503541</v>
+        <v>3683223.047806325</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6767922104151619</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>104.5062358729418</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>282.6988068886408</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>78.78083674902116</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>297.9986308222606</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>109.6870817625077</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.02719212039627</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722606</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417124</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695588</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304575911</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784679</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.8176890312856</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819362</v>
+        <v>53.82913822150063</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986267</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229301</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>55.52079624061455</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272872</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389243</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701325</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881297</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.24096871741</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819383</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986289</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922699</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892426323</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012271</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016456</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272893</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892452</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336592</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890382</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569569</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>51.36569740310371</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822261</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410819</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470408</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.042352470408</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
-        <v>893.2540998721634</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>482.2681950825558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>67.19574492755225</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>67.19574492755225</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2319.182187033641</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1945.716428772561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474941</v>
+        <v>1945.716428772561</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
         <v>77.54416254678287</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3104.520121052924</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4956,7 +4956,7 @@
         <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.77602655187</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611459</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362671</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797123</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075743</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332377</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355918</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291067986</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069468</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852225</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398562</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492545</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474776</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466566</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612122995</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852881</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591802</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615991</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778461</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967192</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354679</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300123</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568973</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028052</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797123</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273794</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803914</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516097</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167365</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793914</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348517</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5147,7 +5147,7 @@
         <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
         <v>2244.643795685161</v>
@@ -5156,7 +5156,7 @@
         <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996602</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
         <v>1527.226249268401</v>
@@ -5165,7 +5165,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685126</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406069</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282724</v>
+        <v>491.0125592675715</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458804</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797123</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797123</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797123</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797123</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797734</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570815</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216001</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238943</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583142</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377256</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.11357044228</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987512</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,34 +5342,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273896</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,19 +5779,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6138,19 +6138,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797747</v>
@@ -6208,19 +6208,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6229,46 +6229,46 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400547</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121468</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121468</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121468</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121468</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270257</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782947</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038324</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797715</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853355</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832654</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487558</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854694</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648807</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611845</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655702955</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,55 +6460,55 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075824</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075794</v>
@@ -6849,7 +6849,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7089,10 +7089,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>126.0028419604367</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922677</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462228</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856474</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012106</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610291</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182134</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465702</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229323</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392196168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856657</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>15.00954930701801</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>106.0841272570751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>655476.3831922024</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>655476.3831922016</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655476.383192202</v>
+        <v>655476.3831922021</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655476.3831922021</v>
+        <v>655476.383192202</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055066</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055056</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073486</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>6.10067730059231e-09</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793550992</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813251</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813248</v>
       </c>
-      <c r="D4" t="n">
-        <v>89744.12305813251</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678303</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678128</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678081</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678113</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239066</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26493,7 +26493,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-746433.1279760493</v>
       </c>
       <c r="C6" t="n">
-        <v>582311.6177515431</v>
+        <v>582311.6177515432</v>
       </c>
       <c r="D6" t="n">
-        <v>582311.6177515434</v>
+        <v>582311.6177515433</v>
       </c>
       <c r="E6" t="n">
-        <v>329349.8105331115</v>
+        <v>329662.4518620264</v>
       </c>
       <c r="F6" t="n">
-        <v>654762.2723404545</v>
+        <v>655074.913669382</v>
       </c>
       <c r="G6" t="n">
-        <v>654762.2723404606</v>
+        <v>655074.9136693819</v>
       </c>
       <c r="H6" t="n">
-        <v>654762.2723404607</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="I6" t="n">
-        <v>654762.2723404603</v>
+        <v>655074.9136693819</v>
       </c>
       <c r="J6" t="n">
-        <v>437231.0699431832</v>
+        <v>437543.7112721039</v>
       </c>
       <c r="K6" t="n">
-        <v>654762.2723404609</v>
+        <v>655074.9136693822</v>
       </c>
       <c r="L6" t="n">
-        <v>654762.2723404603</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="M6" t="n">
-        <v>569707.2444049506</v>
+        <v>570019.8857338702</v>
       </c>
       <c r="N6" t="n">
-        <v>654762.2723404603</v>
+        <v>655074.9136693816</v>
       </c>
       <c r="O6" t="n">
-        <v>654762.2723404603</v>
+        <v>655074.9136693818</v>
       </c>
       <c r="P6" t="n">
-        <v>654762.2723404603</v>
+        <v>655074.9136693816</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341667</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.70828809964</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483691</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>6.139089236967266e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973478</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697348</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973478</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>7.275957614183426e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.90013756251079</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>244.7347328444712</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>100.0350347748398</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>270.4601319683919</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944184</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>108.8774149194509</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>94.23088837711248</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>83.32522828944182</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.510980113489997e-11</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.142398359818266e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28386,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.411577144875051e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28863,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29453,55 +29453,55 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.052405012808361e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.04585765335475e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348408</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135314</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067222</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663261</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817542</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162521</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017563</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.271511415938</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626459985</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236471</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669195</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043709</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651517</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078725</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659435</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521087</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007744</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420742</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422563</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473042</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862086</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071749</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558156</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742413</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937728</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275945</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189892</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612156</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869241</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796253</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355164</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588136</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392027</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610677</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920041</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.35321404173</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515918</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532746</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099317</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467215</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33417,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
         <v>867.8464071162563</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236316261</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396398</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367737</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462649</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902903</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819347</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243118</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683775</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.56753349247</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902388</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774446</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754075</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678973</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674301</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641904</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238416</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113711</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629537</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191309</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010444</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899068</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060449</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066247</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295236</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409634</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191304</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899064</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998973</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
         <v>632.079992146269</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
